--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C7C30D-3198-4B18-8572-F6CBB7C9F568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F32E2B-E86F-4293-9300-90C29E5C92F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="114">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -459,33 +459,6 @@
     <t>F02_TC05</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>F02.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>F02.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F02. </t>
-  </si>
-  <si>
     <t>not_existing_file.txt</t>
   </si>
   <si>
@@ -513,9 +486,6 @@
     <t>Error: Could not read from file 'not_a_file'. Please check file permissions.</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>1,2,3,13</t>
   </si>
   <si>
@@ -535,25 +505,49 @@
   </si>
   <si>
     <t>mesaj de eroare</t>
+  </si>
+  <si>
+    <t>payments_test .txt [1,Cash,10.0\n -1, Cash ,12.5\n  \n  table,Card,30.0\n]</t>
+  </si>
+  <si>
+    <t>payments_test.txt  ["1,Cash,12.5\n"]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1,Cash,12.5]</t>
+  </si>
+  <si>
+    <t>Warning: Skipping invalid payment entry: -1, Cash ,12.5
+Warning: Skipping empty line.
+Error: Invalid number format in payment entry: table,Card,30.0
+[1,Cash,10.0]</t>
+  </si>
+  <si>
+    <t>Warning: Skipping invalid payment entry: -1, Cash ,12.5
+Warning: Skipping empty line.
+Error: Invalid number format in payment entry: table,Card,30.0
+[1,Cash,12.5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 warning-uri, un mesaj de eroare și [1,Cash,12.5] </t>
+  </si>
+  <si>
+    <t>F10. La inchiderea restaurantului se preiau dintr-un fișier detaliile plăților efectuate in timpul zilei și se afișează.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1152,51 +1146,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1208,178 +1202,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
@@ -1387,7 +1218,7 @@
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
@@ -1395,7 +1226,7 @@
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
@@ -1403,22 +1234,200 @@
         </ext>
       </extLst>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1839,7 +1848,7 @@
   <dimension ref="B1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,15 +1859,15 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B1" s="8"/>
-      <c r="D1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
+      <c r="D1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1940,8 +1949,8 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="27" t="s">
-        <v>90</v>
+      <c r="B11" s="99" t="s">
+        <v>113</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1974,8 +1983,8 @@
   </sheetPr>
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1990,73 +1999,73 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
-      <c r="C1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
+      <c r="C1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
+      <c r="A3" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="P6" s="30" t="s">
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="P6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="H8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="46" t="s">
+      <c r="P8" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
       <c r="S8" s="24">
         <v>7</v>
       </c>
@@ -2065,19 +2074,19 @@
       <c r="A9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
-      <c r="H9" s="28"/>
-      <c r="P9" s="46" t="s">
+      <c r="H9" s="27"/>
+      <c r="P9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
       <c r="S9" s="24" t="s">
         <v>79</v>
       </c>
@@ -2086,29 +2095,29 @@
       <c r="A10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="39"/>
-      <c r="P10" s="46" t="s">
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="52"/>
+      <c r="P10" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="46" t="s">
+      <c r="Q10" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="R10" s="46"/>
+      <c r="R10" s="45"/>
       <c r="S10" s="24" t="s">
         <v>83</v>
       </c>
@@ -2117,240 +2126,232 @@
       <c r="A11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="42"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="55"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="42"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="55"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="42"/>
-      <c r="P13" s="30" t="s">
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="55"/>
+      <c r="P13" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="42"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="55"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H15" s="40"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="42"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="55"/>
       <c r="P15" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="Q15" s="47" t="s">
+      <c r="Q15" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H16" s="40"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="55"/>
       <c r="P16" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="Q16" s="33" t="s">
+      <c r="Q16" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
     </row>
     <row r="17" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="42"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="55"/>
       <c r="P17" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="33" t="s">
+      <c r="Q17" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
     </row>
     <row r="18" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="42"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="55"/>
       <c r="P18" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="Q18" s="80" t="s">
+      <c r="Q18" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="R18" s="81"/>
-      <c r="S18" s="82"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="43"/>
     </row>
     <row r="19" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H19" s="40"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="42"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="55"/>
       <c r="P19" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="Q19" s="80" t="s">
+      <c r="Q19" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="R19" s="81"/>
-      <c r="S19" s="82"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="43"/>
     </row>
     <row r="20" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="42"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="55"/>
       <c r="P20" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="Q20" s="33" t="s">
+      <c r="Q20" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
     </row>
     <row r="21" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H21" s="40"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="42"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="55"/>
       <c r="P21" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="Q21" s="33" t="s">
+      <c r="Q21" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
     </row>
     <row r="22" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="42"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="55"/>
     </row>
     <row r="23" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H23" s="40"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="42"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="55"/>
     </row>
     <row r="24" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H24" s="43"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="45"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="B14:D14"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="Q20:S20"/>
     <mergeCell ref="Q21:S21"/>
@@ -2367,6 +2368,14 @@
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="Q17:S17"/>
     <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2381,16 +2390,17 @@
   </sheetPr>
   <dimension ref="B1:AD16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="26.42578125" customWidth="1"/>
     <col min="8" max="8" width="11.140625" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" customWidth="1"/>
@@ -2411,167 +2421,167 @@
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B1" s="8"/>
-      <c r="D1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
+      <c r="D1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B3" s="85" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
+      <c r="B3" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
     </row>
     <row r="6" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="48"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="83"/>
-      <c r="AD6" s="83"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
     </row>
     <row r="7" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="48"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="54" t="s">
+      <c r="B7" s="62"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="52" t="s">
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="51" t="s">
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="83"/>
-      <c r="AD7" s="83"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
     </row>
     <row r="8" spans="2:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="48"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="53" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53" t="s">
+      <c r="G8" s="66"/>
+      <c r="H8" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53" t="s">
+      <c r="I8" s="66"/>
+      <c r="J8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="O8" s="53"/>
-      <c r="P8" s="52" t="s">
+      <c r="K8" s="66"/>
+      <c r="L8" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" s="66"/>
+      <c r="P8" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" s="52" t="s">
+      <c r="Q8" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="R8" s="52" t="s">
+      <c r="R8" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="51">
-        <v>0</v>
-      </c>
-      <c r="W8" s="51">
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="61">
+        <v>0</v>
+      </c>
+      <c r="W8" s="61">
         <v>1</v>
       </c>
-      <c r="X8" s="51">
+      <c r="X8" s="61">
         <v>2</v>
       </c>
-      <c r="Y8" s="51" t="s">
+      <c r="Y8" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="Z8" s="51" t="s">
+      <c r="Z8" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="AA8" s="51" t="s">
+      <c r="AA8" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="AB8" s="51" t="s">
+      <c r="AB8" s="61" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="48"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="54"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="67"/>
       <c r="F9" s="9" t="s">
         <v>47</v>
       </c>
@@ -2602,479 +2612,451 @@
       <c r="O9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="51"/>
-      <c r="AB9" s="51"/>
-    </row>
-    <row r="10" spans="2:30" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="89" t="s">
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="61"/>
+    </row>
+    <row r="10" spans="2:30" ht="63" x14ac:dyDescent="0.25">
+      <c r="B10" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="90" t="s">
-        <v>100</v>
+      <c r="C10" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>97</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="86" t="b">
+        <v>99</v>
+      </c>
+      <c r="F10" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="G10" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="P10" s="87" t="b">
+      <c r="G10" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="Q10" s="87" t="b">
-        <v>0</v>
-      </c>
-      <c r="R10" s="87" t="b">
+      <c r="Q10" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" s="32" t="b">
         <v>0</v>
       </c>
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
-      <c r="V10" s="88" t="b">
+      <c r="V10" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="W10" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="X10" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:30" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="89" t="s">
+      <c r="W10" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="89" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="90" t="s">
-        <v>101</v>
+      <c r="C11" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>98</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" s="86" t="b">
+        <v>100</v>
+      </c>
+      <c r="F11" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N11" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="O11" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="P11" s="87" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="87" t="b">
+      <c r="H11" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="R11" s="87" t="b">
+      <c r="M11" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" s="32" t="b">
         <v>0</v>
       </c>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
-      <c r="V11" s="88" t="b">
+      <c r="V11" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="W11" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="X11" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="88" t="b">
+      <c r="W11" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="33" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:30" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="90" t="s">
-        <v>102</v>
+      <c r="C12" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>108</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="86" t="b">
+        <v>101</v>
+      </c>
+      <c r="F12" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="H12" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="86" t="b">
+      <c r="H12" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="J12" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" s="86" t="b">
+      <c r="J12" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N12" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="P12" s="87" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="87" t="b">
-        <v>0</v>
-      </c>
-      <c r="R12" s="87" t="b">
+      <c r="N12" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" s="32" t="b">
         <v>0</v>
       </c>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
-      <c r="V12" s="88" t="b">
+      <c r="V12" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="W12" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="X12" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="88" t="b">
+      <c r="W12" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="X12" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="33" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:30" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="90" t="s">
+      <c r="C13" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="86" t="b">
+      <c r="F13" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="H13" s="86" t="b">
+      <c r="H13" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="I13" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="86" t="b">
+      <c r="I13" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="L13" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="86" t="b">
+      <c r="L13" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N13" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="O13" s="86" t="b">
+      <c r="N13" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="P13" s="87" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="87" t="b">
-        <v>0</v>
-      </c>
-      <c r="R13" s="87" t="b">
+      <c r="P13" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" s="32" t="b">
         <v>0</v>
       </c>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
-      <c r="V13" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="W13" s="88" t="b">
+      <c r="V13" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="W13" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="X13" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:30" ht="63" x14ac:dyDescent="0.25">
-      <c r="B14" s="89" t="s">
+      <c r="X13" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="90" t="s">
-        <v>102</v>
+      <c r="C14" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>111</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="86" t="b">
+        <v>103</v>
+      </c>
+      <c r="F14" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="G14" s="86" t="b">
+      <c r="H14" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="H14" s="86" t="b">
+      <c r="I14" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="I14" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="86" t="b">
+      <c r="K14" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="K14" s="86" t="b">
+      <c r="L14" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="L14" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="86" t="b">
+      <c r="N14" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="N14" s="86" t="b">
+      <c r="O14" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="O14" s="86" t="b">
-        <v>1</v>
-      </c>
-      <c r="P14" s="87" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="87" t="b">
-        <v>0</v>
-      </c>
-      <c r="R14" s="87" t="b">
+      <c r="P14" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14" s="32" t="b">
         <v>1</v>
       </c>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
-      <c r="V14" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="W14" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="X14" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="88" t="b">
+      <c r="V14" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="W14" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="AA14" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="88" t="b">
+      <c r="AA14" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="33" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="O15" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="P15" s="87" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="87" t="b">
-        <v>0</v>
-      </c>
-      <c r="R15" s="87" t="b">
-        <v>0</v>
-      </c>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="W15" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="X15" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="88" t="b">
-        <v>0</v>
-      </c>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="97"/>
+      <c r="W15" s="97"/>
+      <c r="X15" s="97"/>
+      <c r="Y15" s="97"/>
+      <c r="Z15" s="97"/>
+      <c r="AA15" s="97"/>
+      <c r="AB15" s="97"/>
     </row>
     <row r="16" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="Z8:Z9"/>
     <mergeCell ref="P7:U7"/>
     <mergeCell ref="V7:AB7"/>
     <mergeCell ref="E6:AB6"/>
@@ -3091,20 +3073,8 @@
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="T8:T9"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3117,8 +3087,8 @@
   </sheetPr>
   <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3130,63 +3100,63 @@
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="50.85546875" customWidth="1"/>
+    <col min="12" max="12" width="82.85546875" customWidth="1"/>
     <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="8"/>
-      <c r="D1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
+      <c r="D1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="91" t="s">
+      <c r="D4" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91" t="s">
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="91"/>
+      <c r="L4" s="93"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="91"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="13" t="s">
         <v>19</v>
       </c>
@@ -3199,10 +3169,10 @@
       <c r="H5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="91" t="s">
+      <c r="I5" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="93"/>
       <c r="K5" s="13" t="s">
         <v>56</v>
       </c>
@@ -3214,106 +3184,118 @@
       <c r="B6" s="13">
         <v>9</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="94" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
       <c r="K6" s="13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="13">
         <v>10</v>
       </c>
-      <c r="C7" s="92"/>
+      <c r="C7" s="94"/>
       <c r="D7" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
       <c r="K7" s="13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="13">
         <v>11</v>
       </c>
-      <c r="C8" s="92"/>
+      <c r="C8" s="94"/>
       <c r="D8" s="13" t="s">
         <v>87</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="9" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="13">
         <v>12</v>
       </c>
-      <c r="C9" s="92"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="94" t="s">
-        <v>98</v>
+      <c r="E9" s="37" t="s">
+        <v>107</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="2:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="180" x14ac:dyDescent="0.25">
       <c r="B10" s="13">
         <v>13</v>
       </c>
-      <c r="C10" s="92"/>
+      <c r="C10" s="94"/>
       <c r="D10" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="94" t="s">
-        <v>99</v>
+      <c r="E10" s="37" t="s">
+        <v>106</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
@@ -3335,83 +3317,83 @@
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61" t="s">
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="62"/>
-      <c r="H13" s="59" t="s">
+      <c r="G13" s="77"/>
+      <c r="H13" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="55" t="s">
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="N13" s="56"/>
+      <c r="N13" s="91"/>
     </row>
     <row r="14" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="E14" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="63" t="s">
+      <c r="G14" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="65" t="s">
+      <c r="H14" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="67" t="s">
+      <c r="I14" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="J14" s="67" t="s">
+      <c r="J14" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="69" t="s">
+      <c r="K14" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="L14" s="77" t="s">
+      <c r="L14" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="M14" s="79" t="s">
+      <c r="M14" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="N14" s="58" t="s">
+      <c r="N14" s="79" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="72"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="74"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="73"/>
       <c r="F15" s="75"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="64"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="74"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="17">
@@ -3424,7 +3406,7 @@
       <c r="D16" s="15">
         <v>0</v>
       </c>
-      <c r="E16" s="93">
+      <c r="E16" s="36">
         <v>1</v>
       </c>
       <c r="F16" s="16"/>
@@ -3455,22 +3437,7 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B4:B5"/>
@@ -3485,18 +3452,36 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3644,19 +3629,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6597AB9C-DC10-4824-8900-518D3B18165A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5426D20B-58AE-4BE9-8733-DFB2BC19D8C6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3680,9 +3661,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5426D20B-58AE-4BE9-8733-DFB2BC19D8C6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6597AB9C-DC10-4824-8900-518D3B18165A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F32E2B-E86F-4293-9300-90C29E5C92F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475D15F6-2960-4F68-BA58-204E9EF02DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
     <t xml:space="preserve">2 warning-uri, un mesaj de eroare și [1,Cash,12.5] </t>
   </si>
   <si>
-    <t>F10. La inchiderea restaurantului se preiau dintr-un fișier detaliile plăților efectuate in timpul zilei și se afișează.</t>
+    <t>F02. La inchiderea restaurantului se preiau dintr-un fișier detaliile plăților efectuate in timpul zilei și se afișează.</t>
   </si>
 </sst>
 </file>
@@ -1244,6 +1244,19 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1253,6 +1266,54 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1262,58 +1323,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1328,106 +1344,90 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1447,50 +1447,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3716446</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00957B3F-F2B5-0F85-07F1-D515EE9B8BEE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="1206500"/>
-          <a:ext cx="7346528" cy="4032249"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -1518,7 +1474,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1527,6 +1483,50 @@
         <a:xfrm>
           <a:off x="8233834" y="1513417"/>
           <a:ext cx="4487333" cy="3473312"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3693648</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagine 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{036442F3-E493-47BE-0A6C-46ACC2059275}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8965" y="1264024"/>
+          <a:ext cx="7422965" cy="3272117"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1848,30 +1848,30 @@
   <dimension ref="B1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" customWidth="1"/>
     <col min="15" max="15" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="8"/>
-      <c r="D1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1881,7 +1881,7 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1891,7 +1891,7 @@
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1918,7 +1918,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1933,7 +1933,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1943,28 +1943,28 @@
       <c r="O9" s="17"/>
       <c r="P9" s="17"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="99" t="s">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="42" t="s">
         <v>113</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
     </row>
   </sheetData>
@@ -1983,32 +1983,32 @@
   </sheetPr>
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="7" max="7" width="57" customWidth="1"/>
     <col min="15" max="15" width="7" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" customWidth="1"/>
-    <col min="19" max="19" width="85.5703125" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" customWidth="1"/>
+    <col min="19" max="19" width="85.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
-      <c r="C1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>113</v>
       </c>
@@ -2022,213 +2022,213 @@
       <c r="I3" s="48"/>
       <c r="J3" s="49"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="P6" s="38" t="s">
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="P6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="H8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="45" t="s">
+      <c r="P8" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
       <c r="S8" s="24">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
       <c r="H9" s="27"/>
-      <c r="P9" s="45" t="s">
+      <c r="P9" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
       <c r="S9" s="24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
-      <c r="H10" s="50" t="s">
+      <c r="H10" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="52"/>
-      <c r="P10" s="45" t="s">
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="53"/>
+      <c r="P10" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="45" t="s">
+      <c r="Q10" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="R10" s="45"/>
+      <c r="R10" s="60"/>
       <c r="S10" s="24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="55"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="56"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="55"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="56"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="55"/>
-      <c r="P13" s="38" t="s">
+      <c r="H13" s="54"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="56"/>
+      <c r="P13" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="55"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H15" s="53"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="55"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="56"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="56"/>
       <c r="P15" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="Q15" s="59" t="s">
+      <c r="Q15" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H16" s="53"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="55"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="56"/>
       <c r="P16" s="25" t="s">
         <v>32</v>
       </c>
@@ -2238,14 +2238,14 @@
       <c r="R16" s="46"/>
       <c r="S16" s="46"/>
     </row>
-    <row r="17" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H17" s="53"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="55"/>
+    <row r="17" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="56"/>
       <c r="P17" s="25" t="s">
         <v>33</v>
       </c>
@@ -2255,48 +2255,48 @@
       <c r="R17" s="46"/>
       <c r="S17" s="46"/>
     </row>
-    <row r="18" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H18" s="53"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="55"/>
+    <row r="18" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="56"/>
       <c r="P18" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="Q18" s="41" t="s">
+      <c r="Q18" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="R18" s="42"/>
-      <c r="S18" s="43"/>
-    </row>
-    <row r="19" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="55"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="64"/>
+    </row>
+    <row r="19" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H19" s="54"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="56"/>
       <c r="P19" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="Q19" s="41" t="s">
+      <c r="Q19" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="R19" s="42"/>
-      <c r="S19" s="43"/>
-    </row>
-    <row r="20" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="55"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="64"/>
+    </row>
+    <row r="20" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H20" s="54"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="56"/>
       <c r="P20" s="25" t="s">
         <v>28</v>
       </c>
@@ -2306,14 +2306,14 @@
       <c r="R20" s="46"/>
       <c r="S20" s="46"/>
     </row>
-    <row r="21" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H21" s="53"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="55"/>
+    <row r="21" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="56"/>
       <c r="P21" s="25" t="s">
         <v>27</v>
       </c>
@@ -2323,35 +2323,43 @@
       <c r="R21" s="46"/>
       <c r="S21" s="46"/>
     </row>
-    <row r="22" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H22" s="53"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="55"/>
-    </row>
-    <row r="23" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H23" s="53"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="55"/>
-    </row>
-    <row r="24" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H24" s="56"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="58"/>
+    <row r="22" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="56"/>
+    </row>
+    <row r="23" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="56"/>
+    </row>
+    <row r="24" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H24" s="57"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="Q20:S20"/>
     <mergeCell ref="Q21:S21"/>
@@ -2368,14 +2376,6 @@
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="Q17:S17"/>
     <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2390,45 +2390,45 @@
   </sheetPr>
   <dimension ref="B1:AD16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="H3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" customWidth="1"/>
-    <col min="10" max="13" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" customWidth="1"/>
+    <col min="10" max="13" width="14.5546875" customWidth="1"/>
+    <col min="14" max="14" width="19.88671875" customWidth="1"/>
     <col min="15" max="15" width="21" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" customWidth="1"/>
-    <col min="18" max="19" width="8.85546875" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="11.88671875" customWidth="1"/>
+    <col min="18" max="19" width="8.88671875" customWidth="1"/>
+    <col min="23" max="23" width="9.109375" customWidth="1"/>
     <col min="24" max="24" width="3" customWidth="1"/>
-    <col min="25" max="25" width="5.42578125" customWidth="1"/>
-    <col min="26" max="26" width="4.7109375" customWidth="1"/>
-    <col min="27" max="27" width="7.7109375" customWidth="1"/>
-    <col min="28" max="28" width="16.140625" customWidth="1"/>
-    <col min="29" max="29" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.44140625" customWidth="1"/>
+    <col min="26" max="26" width="4.6640625" customWidth="1"/>
+    <col min="27" max="27" width="7.6640625" customWidth="1"/>
+    <col min="28" max="28" width="16.109375" customWidth="1"/>
+    <col min="29" max="29" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B1" s="8"/>
-      <c r="D1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="D1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B3" s="47" t="s">
         <v>113</v>
       </c>
@@ -2437,151 +2437,151 @@
       <c r="E3" s="48"/>
       <c r="F3" s="49"/>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="62" t="s">
+    <row r="6" spans="2:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
       <c r="AC6" s="30"/>
       <c r="AD6" s="30"/>
     </row>
-    <row r="7" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="62"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="67" t="s">
+    <row r="7" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="68"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="60" t="s">
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="61" t="s">
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="61"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" s="65"/>
       <c r="AC7" s="30"/>
       <c r="AD7" s="30"/>
     </row>
-    <row r="8" spans="2:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="62"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="66" t="s">
+    <row r="8" spans="2:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="68"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66" t="s">
+      <c r="G8" s="67"/>
+      <c r="H8" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66" t="s">
+      <c r="I8" s="67"/>
+      <c r="J8" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66" t="s">
+      <c r="K8" s="67"/>
+      <c r="L8" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66" t="s">
+      <c r="M8" s="67"/>
+      <c r="N8" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="O8" s="66"/>
-      <c r="P8" s="60" t="s">
+      <c r="O8" s="67"/>
+      <c r="P8" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" s="60" t="s">
+      <c r="Q8" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="R8" s="60" t="s">
+      <c r="R8" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="61">
-        <v>0</v>
-      </c>
-      <c r="W8" s="61">
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="65">
+        <v>0</v>
+      </c>
+      <c r="W8" s="65">
         <v>1</v>
       </c>
-      <c r="X8" s="61">
+      <c r="X8" s="65">
         <v>2</v>
       </c>
-      <c r="Y8" s="61" t="s">
+      <c r="Y8" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="Z8" s="61" t="s">
+      <c r="Z8" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="AA8" s="61" t="s">
+      <c r="AA8" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="AB8" s="61" t="s">
+      <c r="AB8" s="65" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="62"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="67"/>
+    <row r="9" spans="2:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="68"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
       <c r="F9" s="9" t="s">
         <v>47</v>
       </c>
@@ -2612,21 +2612,21 @@
       <c r="O9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="61"/>
-      <c r="AA9" s="61"/>
-      <c r="AB9" s="61"/>
-    </row>
-    <row r="10" spans="2:30" ht="63" x14ac:dyDescent="0.25">
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="65"/>
+    </row>
+    <row r="10" spans="2:30" ht="62.4" x14ac:dyDescent="0.3">
       <c r="B10" s="34" t="s">
         <v>49</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:30" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:30" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B11" s="34" t="s">
         <v>59</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:30" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B12" s="34" t="s">
         <v>87</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:30" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B13" s="34" t="s">
         <v>88</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13" s="33" t="b">
         <v>0</v>
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:30" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:30" ht="93.6" x14ac:dyDescent="0.3">
       <c r="B14" s="34" t="s">
         <v>89</v>
       </c>
@@ -3011,48 +3011,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="98"/>
-      <c r="S15" s="98"/>
-      <c r="T15" s="98"/>
-      <c r="U15" s="98"/>
-      <c r="V15" s="97"/>
-      <c r="W15" s="97"/>
-      <c r="X15" s="97"/>
-      <c r="Y15" s="97"/>
-      <c r="Z15" s="97"/>
-      <c r="AA15" s="97"/>
-      <c r="AB15" s="97"/>
-    </row>
-    <row r="16" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+    </row>
+    <row r="16" spans="2:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="S8:S9"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
@@ -3069,6 +3061,14 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="N8:O8"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="S8:S9"/>
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q8:Q9"/>
@@ -3087,76 +3087,76 @@
   </sheetPr>
   <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="50.85546875" customWidth="1"/>
-    <col min="12" max="12" width="82.85546875" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="50.88671875" customWidth="1"/>
+    <col min="12" max="12" width="82.88671875" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="8"/>
-      <c r="D1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="92" t="s">
+      <c r="D1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="71" t="s">
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93" t="s">
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="93"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="93"/>
+      <c r="L4" s="77"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="13" t="s">
         <v>19</v>
       </c>
@@ -3169,10 +3169,10 @@
       <c r="H5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="93" t="s">
+      <c r="I5" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="93"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="13" t="s">
         <v>56</v>
       </c>
@@ -3180,11 +3180,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
         <v>9</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="78" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -3196,8 +3196,8 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
       <c r="K6" s="13" t="s">
         <v>105</v>
       </c>
@@ -3205,11 +3205,11 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="13">
         <v>10</v>
       </c>
-      <c r="C7" s="94"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="13" t="s">
         <v>59</v>
       </c>
@@ -3219,8 +3219,8 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="13" t="s">
         <v>105</v>
       </c>
@@ -3228,11 +3228,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
         <v>11</v>
       </c>
-      <c r="C8" s="94"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="13" t="s">
         <v>87</v>
       </c>
@@ -3242,8 +3242,8 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
       <c r="K8" s="13" t="s">
         <v>108</v>
       </c>
@@ -3251,11 +3251,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="13">
         <v>12</v>
       </c>
-      <c r="C9" s="94"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="13" t="s">
         <v>88</v>
       </c>
@@ -3265,8 +3265,8 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
       <c r="K9" s="13" t="s">
         <v>109</v>
       </c>
@@ -3274,11 +3274,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="180" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
         <v>13</v>
       </c>
-      <c r="C10" s="94"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="13" t="s">
         <v>89</v>
       </c>
@@ -3288,8 +3288,8 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
       <c r="K10" s="13" t="s">
         <v>112</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -3310,92 +3310,92 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>60</v>
       </c>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="84" t="s">
+    <row r="13" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="76" t="s">
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="77"/>
-      <c r="H13" s="84" t="s">
+      <c r="G13" s="80"/>
+      <c r="H13" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="90" t="s">
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="N13" s="91"/>
-    </row>
-    <row r="14" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="68" t="s">
+      <c r="N13" s="95"/>
+    </row>
+    <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="72" t="s">
+      <c r="E14" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="74" t="s">
+      <c r="F14" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="78" t="s">
+      <c r="G14" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="80" t="s">
+      <c r="H14" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="70" t="s">
+      <c r="I14" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="J14" s="70" t="s">
+      <c r="J14" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="82" t="s">
+      <c r="K14" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="L14" s="87" t="s">
+      <c r="L14" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="M14" s="89" t="s">
+      <c r="M14" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="N14" s="79" t="s">
+      <c r="N14" s="82" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="69"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="74"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="96"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="83"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="17">
         <f>SUM(C16:D16)</f>
         <v>5</v>
@@ -3437,6 +3437,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="J14:J15"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:L3"/>
@@ -3453,21 +3468,6 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3476,12 +3476,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3629,15 +3626,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5426D20B-58AE-4BE9-8733-DFB2BC19D8C6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6597AB9C-DC10-4824-8900-518D3B18165A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3661,10 +3662,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6597AB9C-DC10-4824-8900-518D3B18165A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5426D20B-58AE-4BE9-8733-DFB2BC19D8C6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>